--- a/data/Test_Solved_Questionnaires.xlsx
+++ b/data/Test_Solved_Questionnaires.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\ragchat_demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F8517F-2ECF-4EA2-97C3-F1C4D9BA9559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D293390-EF6F-43C5-BBDC-92DD28C1A998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62010" yWindow="1845" windowWidth="21600" windowHeight="11340" xr2:uid="{4DF1EA21-29B5-43D4-890D-9355948ECD4B}"/>
+    <workbookView xWindow="58335" yWindow="735" windowWidth="21600" windowHeight="11340" xr2:uid="{4DF1EA21-29B5-43D4-890D-9355948ECD4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>How many employees does F24 have up to now mid 2025?</t>
   </si>
   <si>
     <t>Around 300.</t>
   </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>What is F24 main website?</t>
+  </si>
+  <si>
+    <t>https://f24.com/en/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +94,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,34 +436,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2165D71-1FDE-4875-9C08-1E8848397B1B}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AD85D697-924F-4B1E-B3C8-4F0303F41A04}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fd1262d7-4c2d-4dd0-95cc-6a7deab753cf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,17 +641,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fd1262d7-4c2d-4dd0-95cc-6a7deab753cf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ACF158-48BD-4394-AAF3-AE8F65EA9AFA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380EDA01-F7BF-477F-84D2-C63029368233}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="fd1262d7-4c2d-4dd0-95cc-6a7deab753cf"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -634,17 +684,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{380EDA01-F7BF-477F-84D2-C63029368233}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21ACF158-48BD-4394-AAF3-AE8F65EA9AFA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="fd1262d7-4c2d-4dd0-95cc-6a7deab753cf"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
